--- a/parsheet.xlsx
+++ b/parsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAFA2D8-873D-4F8B-9EAE-4CCF7A220A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14481C-9F3A-4EBF-87CC-A31EE99D7B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="720" windowWidth="24660" windowHeight="18345" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
+    <workbookView xWindow="8565" yWindow="4575" windowWidth="24660" windowHeight="18345" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="23">
   <si>
     <t>Cherry</t>
   </si>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0549C81E-2653-45F2-8A6C-016AE26BC8A5}">
   <dimension ref="B4:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,27 +1086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
       <c r="I36" t="s">
         <v>11</v>
       </c>
@@ -1121,15 +1101,6 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
@@ -1144,15 +1115,6 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
       <c r="I38" t="s">
         <v>11</v>
       </c>
@@ -1167,15 +1129,6 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
       <c r="I39" t="s">
         <v>11</v>
       </c>

--- a/parsheet.xlsx
+++ b/parsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14481C-9F3A-4EBF-87CC-A31EE99D7B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BEBD1-4567-48F1-999D-5B8425E0DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="4575" windowWidth="24660" windowHeight="18345" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
+    <workbookView xWindow="6210" yWindow="2325" windowWidth="24660" windowHeight="18345" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="23">
   <si>
     <t>Cherry</t>
   </si>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0549C81E-2653-45F2-8A6C-016AE26BC8A5}">
-  <dimension ref="B4:L47"/>
+  <dimension ref="B4:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D35" sqref="B35:D35"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +478,10 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
@@ -597,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -610,6 +610,18 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -619,16 +631,16 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -638,18 +650,6 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -673,13 +673,13 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>15</v>
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -710,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -733,10 +733,10 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -752,6 +752,18 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -764,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <v>30</v>
@@ -786,18 +798,6 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
@@ -833,13 +833,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>30</v>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -882,13 +882,13 @@
         <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>60</v>
@@ -924,6 +924,18 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -936,13 +948,13 @@
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L28">
         <v>60</v>
@@ -958,18 +970,6 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29">
-        <v>60</v>
-      </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -979,13 +979,13 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
         <v>8</v>
@@ -1005,13 +1005,13 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>60</v>
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="L32">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1054,13 +1054,13 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
         <v>13</v>
       </c>
       <c r="L33">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1077,49 +1077,49 @@
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L34">
         <v>120</v>
       </c>
     </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>120</v>
+      </c>
+    </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L36">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>120</v>
-      </c>
-    </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K38" t="s">
         <v>11</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L39">
         <v>120</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="L40">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
       </c>
       <c r="L41">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1175,41 +1175,41 @@
         <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L42">
         <v>240</v>
       </c>
     </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>240</v>
+      </c>
+    </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
       </c>
       <c r="L44">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>13</v>
-      </c>
-      <c r="L45">
-        <v>25</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -1220,23 +1220,51 @@
         <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
         <v>4</v>
       </c>
-      <c r="K47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L47">
+      <c r="L48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49">
         <v>25</v>
       </c>
     </row>

--- a/parsheet.xlsx
+++ b/parsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BEBD1-4567-48F1-999D-5B8425E0DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D88F276-CD29-4F9B-89E6-67460925FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2325" windowWidth="24660" windowHeight="18345" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
+    <workbookView xWindow="20580" yWindow="1770" windowWidth="25335" windowHeight="18720" xr2:uid="{3286187A-8F57-4A38-A45A-D8D8B6DD411C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0549C81E-2653-45F2-8A6C-016AE26BC8A5}">
   <dimension ref="B4:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
         <v>9</v>
@@ -819,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
         <v>9</v>
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -911,15 +911,15 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -973,13 +973,13 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1014,12 +1014,12 @@
         <v>8</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1083,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="L34">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="L35">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="L36">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="L38">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="L39">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="L40">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="L41">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="L42">
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="L43">
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="L44">
-        <v>240</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="L46">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
